--- a/biology/Botanique/Graptopetalum/Graptopetalum.xlsx
+++ b/biology/Botanique/Graptopetalum/Graptopetalum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graptopetalum est un genre botanique appartenant à la famille des Crassulaceae et comprenant une douzaine d'espèces succulentes. Ces plantes sont originaires du Mexique et d'Arizona.
 Le genre doit son nom au fait que les pétales (petalum) de ses fleurs sont tachetés (grapto).
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Graptopetalum amethystinum  (Rose) E.Walther
 Graptopetalum bartramii  Rose
@@ -557,9 +571,11 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Graptopetalum peut facilement s'hybrider avec des genres proches tels que Sedum ou Echeveria (croisements intergénériques). Ces hybrides sont alors nommés par la fusion du nom des deux genres comme « Graptoveria » résultant du croisement d'un Graptopetalum et d'un Echeveria. Ce type de croisements donne souvent de beaux résultats appréciés des horticulteurs[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Graptopetalum peut facilement s'hybrider avec des genres proches tels que Sedum ou Echeveria (croisements intergénériques). Ces hybrides sont alors nommés par la fusion du nom des deux genres comme « Graptoveria » résultant du croisement d'un Graptopetalum et d'un Echeveria. Ce type de croisements donne souvent de beaux résultats appréciés des horticulteurs.
 </t>
         </is>
       </c>
